--- a/Example-Spreadsheet.xlsx
+++ b/Example-Spreadsheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -22,49 +22,19 @@
     <t>Field</t>
   </si>
   <si>
-    <t>Vikranth</t>
-  </si>
-  <si>
-    <t>vikranth@example.com</t>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>vikranth@xyz.com</t>
   </si>
   <si>
     <t>Curation</t>
   </si>
   <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>john.doe@example.com</t>
-  </si>
-  <si>
-    <t>Engineering</t>
-  </si>
-  <si>
-    <t>Alice Lee</t>
-  </si>
-  <si>
-    <t>alice.lee@example.com</t>
-  </si>
-  <si>
-    <t>Design</t>
-  </si>
-  <si>
-    <t>Bob Martin</t>
-  </si>
-  <si>
-    <t>bob.martin@example.com</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>Carol Chen</t>
-  </si>
-  <si>
-    <t>carol.chen@example.com</t>
-  </si>
-  <si>
-    <t>HR</t>
+    <t>Riya</t>
+  </si>
+  <si>
+    <t>riya22410@iiitd.ac.in</t>
   </si>
 </sst>
 </file>
@@ -82,7 +52,6 @@
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -117,19 +86,20 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -346,9 +316,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.38"/>
-    <col customWidth="1" min="2" max="2" width="21.88"/>
-    <col customWidth="1" min="3" max="3" width="11.0"/>
+    <col customWidth="1" min="1" max="1" width="8.0"/>
+    <col customWidth="1" min="2" max="2" width="18.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -380,42 +349,7 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C3" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
